--- a/数据整理/stocks/A股/上证主板/600461-洪城环境.xlsx
+++ b/数据整理/stocks/A股/上证主板/600461-洪城环境.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1275,4 +1276,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600461-洪城环境.xlsx
+++ b/数据整理/stocks/A股/上证主板/600461-洪城环境.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1284,7 +1285,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1295,17 +1296,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1315,14 +1336,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.87</v>
+          <t>006700</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>31.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1939</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1331,13 +1374,383 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>009078</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>30.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009077</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>30.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006061</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>红土创新增强收益债券A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006701</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>31.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004549</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富安达消费主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006231</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006064</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>红土创新增强收益债券C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20.16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006232</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>7</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.06</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600461-洪城环境.xlsx
+++ b/数据整理/stocks/A股/上证主板/600461-洪城环境.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1681,7 +1682,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1692,17 +1693,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1712,14 +1733,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.32</v>
+          <t>002415</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>69.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1728,14 +1771,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.87</v>
+          <t>006700</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>27.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1744,13 +1809,209 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>006701</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>27.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006231</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>57.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006232</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>57.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>7</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.06</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600461-洪城环境.xlsx
+++ b/数据整理/stocks/A股/上证主板/600461-洪城环境.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1926,7 +1927,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1937,17 +1938,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1957,14 +1978,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.1</v>
+          <t>006061</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>红土创新增强收益债券A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>21.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2918</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1973,14 +2016,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.32</v>
+          <t>006700</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>31.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1989,14 +2054,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.87</v>
+          <t>006701</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>31.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2005,13 +2092,151 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>006064</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>红土创新增强收益债券C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>21.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>7</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.06</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600461-洪城环境.xlsx
+++ b/数据整理/stocks/A股/上证主板/600461-洪城环境.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.36</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.32</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>0.87</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>7</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -566,6 +583,290 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>080005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长盛量化红利混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>61.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000573</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘通利混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006700</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>27.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006701</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>27.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011198</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德鑫选回报混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011199</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银施罗德鑫选回报混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -773,7 +1074,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1017,7 +1318,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1413,7 +1714,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1923,7 +2224,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600461-洪城环境.xlsx
+++ b/数据整理/stocks/A股/上证主板/600461-洪城环境.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.36</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.32</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>0.87</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>7</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -583,6 +600,328 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根安全战略股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0940</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001484</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘新价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006700</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>23.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006701</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011816</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>融通多元收益一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>22.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015172</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上投摩根安全战略股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>016246</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘新价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -866,7 +1205,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1074,7 +1413,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1318,7 +1657,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1714,7 +2053,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2224,7 +2563,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
